--- a/Group 7 Risk Register.xlsx
+++ b/Group 7 Risk Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachitchaudhary/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC6DBD3-1FC5-4261-996B-9CD411BA56BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F94DBAFC-F3FA-4EC3-8513-6F9F29DEA97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16860" xr2:uid="{3D3CEA7C-0E16-4C1E-96B5-2E9AF1160AF0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>RISK REGISTER</t>
   </si>
@@ -150,6 +150,30 @@
   </si>
   <si>
     <t xml:space="preserve">Hold meetings to discuss project progress to ensure that the requirements are met. </t>
+  </si>
+  <si>
+    <t>Digital Display Errors</t>
+  </si>
+  <si>
+    <t>Incorrect prices or item descriptions on the digital meny could cause customer dissatisfaction and loss of trust</t>
+  </si>
+  <si>
+    <t>Regularly review and update digital menu content to ensure accuracy.</t>
+  </si>
+  <si>
+    <t>Implement customer feedback mechanisms to quickly resolve errors.</t>
+  </si>
+  <si>
+    <t>Seasonal Flavor Avaibility Issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Failure to plan inventory for seasonal flavors might lead to stockouts, negatively affecting customer experience.</t>
+  </si>
+  <si>
+    <t>Monitor demand trends and adjust inventory planning for seasonal flavors.</t>
+  </si>
+  <si>
+    <t>Offer alternative flavors or discounts if seasonal items are unavailable.</t>
   </si>
 </sst>
 </file>
@@ -159,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +235,11 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF595959"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -277,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -330,6 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,8 +680,8 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -903,32 +933,65 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="46.5">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="10"/>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
+        <f>D10*E10</f>
+        <v>4</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="46.5">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>8</v>
+      </c>
       <c r="F11" s="4">
-        <f t="shared" ref="F11:F53" si="1">D11*E11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="8"/>
+        <f>D11*E11</f>
+        <v>1.6</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2"/>
@@ -937,7 +1000,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="10"/>
       <c r="F12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F11:F53" si="1">D12*E12</f>
         <v>0</v>
       </c>
       <c r="G12" s="4"/>
@@ -951,7 +1014,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="10"/>
       <c r="F13" s="4">
-        <f t="shared" si="1"/>
+        <f>D13*E13</f>
         <v>0</v>
       </c>
       <c r="G13" s="4"/>
@@ -1528,13 +1591,13 @@
     <mergeCell ref="C2:I2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D4:D10 D11:D1048576" xr:uid="{6713CADE-F6B3-46E6-9632-1B182E020D09}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D4:D1048576" xr:uid="{6713CADE-F6B3-46E6-9632-1B182E020D09}">
       <formula1>"0.8, 0.5, 0.2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E4:E10 E11:E1048576" xr:uid="{04E46AC2-6FE7-4888-9D53-C6C704B67089}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E4:E1048576" xr:uid="{04E46AC2-6FE7-4888-9D53-C6C704B67089}">
       <formula1>"10, 8, 5, 2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G4:G10 G11:G1048576" xr:uid="{B996788D-0890-4569-A6D7-9B223F0F932F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G4:G1048576" xr:uid="{B996788D-0890-4569-A6D7-9B223F0F932F}">
       <formula1>"Accept, Mitigate, Avoid, Transfer, Escalate"</formula1>
     </dataValidation>
   </dataValidations>
